--- a/biology/Médecine/Comité_français_d'éducation_pour_la_santé/Comité_français_d'éducation_pour_la_santé.xlsx
+++ b/biology/Médecine/Comité_français_d'éducation_pour_la_santé/Comité_français_d'éducation_pour_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité français d'éducation pour la santé ou CFES est une association française créée en 1972 et dissoute en décembre 2002.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En août 1972, le CFES a remplacé le Centre national d'éducation sanitaire démographique et sociale créé en 1945. Le CFES travaille en étroite collaboration avec les comités régionaux et départementaux d’éducation pour la santé qui relaient et amplifient sur le terrain les campagnes nationales et, surtout, impulsent des actions locales répondant aux besoins spécifiques des régions et des départements. Il édite la revue La Santé de l'homme, créée en 1942.
-Avec la loi du 4 mars 2002 relative aux droits des malades et à la qualité du système de santé [1], le Comité français d'éducation pour la santé a été remplacé par l'Institut national de prévention et d'éducation pour la santé (INPES), un établissement public administratif de l'État aux missions élargies.
+Avec la loi du 4 mars 2002 relative aux droits des malades et à la qualité du système de santé , le Comité français d'éducation pour la santé a été remplacé par l'Institut national de prévention et d'éducation pour la santé (INPES), un établissement public administratif de l'État aux missions élargies.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mandatée par le ministère de la Santé pour concevoir et mettre en œuvre les grandes actions de promotion de la santé : communication, information et éducation.
 Pour ce faire le CFES a mis en œuvre des actions nationales définies avec le ministère des Affaires sociales et dorénavant avec le Fonds national de prévention, d’éducation et d'information sanitaires de l’Assurance maladie ; réalise et coordonne des actions spécifiques, en relation avec les organismes publics qui l’en mandatent ; observe et mesure les évolutions des attitudes et comportements de la société vis-à-vis de la santé ; s’attache à favoriser un ancrage profond, grâce aux actions de proximité, des messages d’éducation et de promotion de la santé.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,128 +593,369 @@
           <t>Campagnes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dès 1976, l'État confie au CFES la mise en œuvre de programmes pluriannuels de prévention en santé publique, et le dote d'importants moyens budgétaires. Les premières campagnes télévisées sont ainsi réalisées sur la lutte contre le tabagisme en 1976 ou l'abus de médicaments en 1980, suivies par la lutte contre l'alcoolisme en 1984[1]. Cette première campagne télévisée déclinée en 8 spots différents contre l'alcoolisme remporte un succès considérable avec son accroche Un verre ça va, trois verres, bonjour les dégâts, inventée par le publicitaire Daniel Robert. Ce dernier sera aussi à l'origine d'une autre campagne emblématique, Tu t'es vu, quand t'as bu ?, initiée en 1991 et poursuivie avec de nouveaux spots en 1995. D'autres slogans restent dans la mémoire collective : en 1986), Le Sida, il ne passera pas par moi (1987), Les préservatifs préservent de tout. De tout, sauf de l'amour (1989) ou Fumer c'est pas ma nature (parodie du cow boy emblématique du cigarettier Marlboro en 1991).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1976, l'État confie au CFES la mise en œuvre de programmes pluriannuels de prévention en santé publique, et le dote d'importants moyens budgétaires. Les premières campagnes télévisées sont ainsi réalisées sur la lutte contre le tabagisme en 1976 ou l'abus de médicaments en 1980, suivies par la lutte contre l'alcoolisme en 1984. Cette première campagne télévisée déclinée en 8 spots différents contre l'alcoolisme remporte un succès considérable avec son accroche Un verre ça va, trois verres, bonjour les dégâts, inventée par le publicitaire Daniel Robert. Ce dernier sera aussi à l'origine d'une autre campagne emblématique, Tu t'es vu, quand t'as bu ?, initiée en 1991 et poursuivie avec de nouveaux spots en 1995. D'autres slogans restent dans la mémoire collective : en 1986), Le Sida, il ne passera pas par moi (1987), Les préservatifs préservent de tout. De tout, sauf de l'amour (1989) ou Fumer c'est pas ma nature (parodie du cow boy emblématique du cigarettier Marlboro en 1991).
 Pour renforcer la notoriété de ses campagnes, le CFES fait appel à de nombreux réalisateurs célèbres ou en devenir, tels que Gérard Jugnot (Alcool 1991), Patrice Leconte (Drogues 1991), Michel Gondry (Accidents domestiques 1992) ou Jean Becker (Alcool 1984 et 1995). Les campagnes de lutte contre le sida bénéficient tout particulièrement du recours à des célébrités avec Jean-Jacques Beineix (1987), Claude Miller (1995), Emir Kusturica (1996), Tonie Marshall (1997), Patrice Chéreau (1999) et Raymond Depardon (2000).
 En comparaison, le CFES a peu recours à des comédiens connus, avec les exemples de Claire Nadeau (Accidents cardiaques 1986), Jean-Louis Trintignant (Sida 1996), Martin Lamotte (Chutes de ski 2000), ou en devenir tels que Lorànt Deutsch et Jocelyn Quivrin (Tabac 1997).
-Le CFES assure la réalisation des campagnes de lutte contre le sida depuis 1987, avec une interruption entre 1989 et 1994 où cette thématique est confiée à l'Agence française de lutte contre le sida (AFLS). L'AFLS réalise ainsi en 1989 la première campagne contre le sida à destination d'un public ciblé particulièrement touché, les homosexuels[2], avant celle du CFES à destination des habitants des DOM en 1998. 
-Accidents de la vie courante
-Un enfant on ne peut pas toujours être derrière, alors prenez les devants ! (1992)
-Quatre spots TV : Chutes[3], Brûlure cuisine[4], Intoxication[5] et Produits dangereux[6]. Réalisateur : Michel Gondry
+Le CFES assure la réalisation des campagnes de lutte contre le sida depuis 1987, avec une interruption entre 1989 et 1994 où cette thématique est confiée à l'Agence française de lutte contre le sida (AFLS). L'AFLS réalise ainsi en 1989 la première campagne contre le sida à destination d'un public ciblé particulièrement touché, les homosexuels, avant celle du CFES à destination des habitants des DOM en 1998. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accidents de la vie courante</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un enfant on ne peut pas toujours être derrière, alors prenez les devants ! (1992)
+Quatre spots TV : Chutes, Brûlure cuisine, Intoxication et Produits dangereux. Réalisateur : Michel Gondry
 Et vous, que faites-vous pour garder l'équilibre ? (1997)
-Spot TV Longue chute escalier[7]. Réalisateur : Frédéric Tellier
+Spot TV Longue chute escalier. Réalisateur : Frédéric Tellier
 Les chutes chez les personnes âgées (Chaque jour, on peut prévenir les accidents de la vie courante) (1999)
-Spot TV Glissade[8]. Réalisateur : Henri Barges
+Spot TV Glissade. Réalisateur : Henri Barges
 Prévention des chutes de ski : pensez à faire régler vos fixations par des professionnels (2000)
-Spot TV[9]. Voix : Martin Lamotte
+Spot TV. Voix : Martin Lamotte
 Chutes et Équilibre (2001)
-Deux brochures : Aménagez votre maison pour éviter les chutes et Comment garder son équilibre après 60 ans ?
-Alcool
-Un verre ça va, trois verres, bonjour les dégâts (1984)
-Huit spots TV : Couple devant la télévision[10], Dernier verre entre amis[11], Cocktail femmes[12], Couple au restaurant[13], Jumeaux au restaurant[14], Michel au Bistro[15], Jeunes au Bistro[16] et Jeunes Slow[17]
+Deux brochures : Aménagez votre maison pour éviter les chutes et Comment garder son équilibre après 60 ans ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un verre ça va, trois verres, bonjour les dégâts (1984)
+Huit spots TV : Couple devant la télévision, Dernier verre entre amis, Cocktail femmes, Couple au restaurant, Jumeaux au restaurant, Michel au Bistro, Jeunes au Bistro et Jeunes Slow
 Pensez au deuxième verre : pour l'eau ! (1986)
-Trois spots TV : Repas de famille[18], Restaurant d'affaire[19] et Bistro[20]
+Trois spots TV : Repas de famille, Restaurant d'affaire et Bistro
 Tu t'es vu quand t'as bu ? (1991-1995)
-Quatre spots TV (1991) : Fille dans l'escalier[21] (avec Marion Cotillard), Boîte de nuit[22], Couple au lit[23] et Cocktail entreprise[24]. Réalisateur : Gérard Jugnot
-Quatre spots TV (1995) : La porte de l'examen [25], Mise en forme avant de sortir[26], Le réveil cauchemar (Alors, heureuse ?)[27] et Dans une salle d'attente[28]. Réalisateur : Jean Becker
+Quatre spots TV (1991) : Fille dans l'escalier (avec Marion Cotillard), Boîte de nuit, Couple au lit et Cocktail entreprise. Réalisateur : Gérard Jugnot
+Quatre spots TV (1995) : La porte de l'examen , Mise en forme avant de sortir, Le réveil cauchemar (Alors, heureuse ?) et Dans une salle d'attente. Réalisateur : Jean Becker
 Et vous, avec l'alcool vous en êtes où ? (1997)
-Trois spots TV : Repas d'affaire[29], Apéritif canapé[30] et Jeunes[31]
+Trois spots TV : Repas d'affaire, Apéritif canapé et Jeunes
 Buvez-vous plus de 3 verres d'alcool par jour ? (Interview) (1999)
-Deux spots TV : Restaurant[32] et Terrasse de café[33]. Réalisateur : Michel Meyer
+Deux spots TV : Restaurant et Terrasse de café. Réalisateur : Michel Meyer
 L'alcool, un enjeu majeur de santé publique (2001)
 Dépliant Etes-vous sûr de tout connaître sur les risques liés à l'alcool ?
 Guide pratique Pour faire le point sur votre consommation d'alcool
 L'alcool, pas besoin d'être ivre pour en mourir (2001)
-Deux spots TV : Les deux femmes (toilettes)[34] et Les deux amis (escalier)[35]. Réalisateur : Pierre Salvadori
-Drogues
-Parlons-en avant qu'elle ne lui en parle (1982)
-Spot TV[36]
+Deux spots TV : Les deux femmes (toilettes) et Les deux amis (escalier). Réalisateur : Pierre Salvadori</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Drogues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Parlons-en avant qu'elle ne lui en parle (1982)
+Spot TV
 La drogue c'est de la merde (1986)
-Spot TV[37]
+Spot TV
 Aidons-les à trouver la force de dire non (1991)
-Spot TV[38]. Réalisateur : Patrice Leconte
+Spot TV. Réalisateur : Patrice Leconte
 Contre la drogue, on n'est jamais trop (1994)
-Spot TV Femme[39]
+Spot TV Femme
 Drogues : savoir plus risquer moins (2000). En partenariat avec la MILDT
 Cinq brochures : Alcool, Cannabis, Cocaïne, Ecstasy et Tabac
 Livre Drogues, savoir plus, risquer moins (Éditions du Seuil)
-Quatre spots TV (2001) : Casting[40], Cuisine[41], Guerre du feu[42] et Orage[43]. Réalisateur Joachim Bach
+Quatre spots TV (2001) : Casting, Cuisine, Guerre du feu et Orage. Réalisateur Joachim Bach
 Pour prévenir les risques de l'usage des drogues (2001)
 Quatre annonces presse Il n'y a pas de meilleure influence que la vôtre : Alcool, Cannabis, Ecstasy, et Alcool, tabac et cannabis
 Alcool, Cannabis, Tabac et autres drogues, et vous, savez-vous où VOUS en êtes ? (2002)
 Quatre spots radio : Patrick 20 ans, Nathalie 17 ans, Germain 18 ans, Sylvie 22 ans
 Cinq brochures : Alcool, Cannabis, Cocaïne, Ecstasy et Tabac
-Site internet www.drogues-savoir-plus.com
-Médicaments
-Vivez pleinement, sans abus de médicaments (1980)
-Spot TV Votre santé aussi dépend de vous[44]
+Site internet www.drogues-savoir-plus.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vivez pleinement, sans abus de médicaments (1980)
+Spot TV Votre santé aussi dépend de vous
 Un médicament, ça ne se prend pas à la légère (1991)
-Deux spots TV : Respecter les quantités et éviter les mélanges[45] et Respecter les doses prescrites[46]
-Nutrition
-Journée nationale du petit déjeuner (25 septembre 1994)
-Spot TV[47]
+Deux spots TV : Respecter les quantités et éviter les mélanges et Respecter les doses prescrites</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Journée nationale du petit déjeuner (25 septembre 1994)
+Spot TV
 Mieux manger construit notre santé (2001)
 Dépliant Frais, en conserve ou surgelés, les fruits et légumes protègent votre santé
-5 annonces presse : Orange, Courgette, Aubergine, Pastèque et Feu rouge
-Sida
-Le Sida, il ne passera pas par moi (1987)
-4 spots TV Il court, il court, le sida : Homme[48], Femme[49], Jeune[50] et Couple[51]. Réalisateur : Jean-Jacques Beineix
+5 annonces presse : Orange, Courgette, Aubergine, Pastèque et Feu rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sida</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Sida, il ne passera pas par moi (1987)
+4 spots TV Il court, il court, le sida : Homme, Femme, Jeune et Couple. Réalisateur : Jean-Jacques Beineix
 Aujourd'hui, les préservatifs préservent de tout, même du ridicule (1988)
-9 spots TV : Il paraît que les femmes ont horreur de ça 1[52] et 2[53], Il paraît que les filles ont horreur de ça[54], Il paraît que ça coupe tout 1[55], 2[56] et 3[57], Il paraît que c'est difficile à mettre 1[58], 2[59] et Il paraît que c'est galère à mettre[60]
+9 spots TV : Il paraît que les femmes ont horreur de ça 1 et 2, Il paraît que les filles ont horreur de ça, Il paraît que ça coupe tout 1, 2 et 3, Il paraît que c'est difficile à mettre 1, 2 et Il paraît que c'est galère à mettre
 Les préservatifs préservent de tout. De tout, sauf de l'amour (1989)
-Spot TV[61]
+Spot TV
 Vivre avec le virus du sida (1995)
-3 spots TV : Les deux frères (Basket[62]), Le couple (Port[63]) et L'entreprise[64]. Réalisateur : Claude Miller
+3 spots TV : Les deux frères (Basket), Le couple (Port) et L'entreprise. Réalisateur : Claude Miller
 Aimez-vous comme vous voulez, utilisez un préservatif (Protégez-vous du sida. Protégez les autres) (1996)
-Spot TV Le Slow[65]. Réalisateurs : Emir Kusturica et James Huth. Voix off : Jean-Louis Trintignant
+Spot TV Le Slow. Réalisateurs : Emir Kusturica et James Huth. Voix off : Jean-Louis Trintignant
 Campagne DOM (1996)
-2 spots TV : Les deux sœurs[66] et La montagne[67]. Réalisateur : Jim Damour
+2 spots TV : Les deux sœurs et La montagne. Réalisateur : Jim Damour
 Rester en éveil face au sida (1997)
-Spot TV La route[68]. Réalisateur : Eric Coignoux
+Spot TV La route. Réalisateur : Eric Coignoux
 Vivre avec le VIH (Sida. La science progresse. Et la solidarité ?) (1997)
-3 spots TV : Le couple[69], La famille[70] et L'entreprise[71]. Réalisateur : Tonie Marshall
+3 spots TV : Le couple, La famille et L'entreprise. Réalisateur : Tonie Marshall
 Sida. Aujourd'hui on peut faire beaucoup. Mais rien sans vous (1998-1999)
-2 spots TV Dépistage (1998) : Homme Métropole[72] (Réalisateur Yvon Marciano) et Femme Antilles[73] (Réalisateur Jim Damour)
-2 spots TV Vivre avec le virus du sida dans les DOM (1999) : Le frère[74] et La nouvelle vie[75]. Réalisateur Camille Mauduech
-3 spots TV (1999) : Après rupture[76], Défaillance homosexuelle[77] et Prévention personnes atteintes VIH[78]. Réalisateur Patrice Chéreau
+2 spots TV Dépistage (1998) : Homme Métropole (Réalisateur Yvon Marciano) et Femme Antilles (Réalisateur Jim Damour)
+2 spots TV Vivre avec le virus du sida dans les DOM (1999) : Le frère et La nouvelle vie. Réalisateur Camille Mauduech
+3 spots TV (1999) : Après rupture, Défaillance homosexuelle et Prévention personnes atteintes VIH. Réalisateur Patrice Chéreau
 Le sida on en meurt encore (2000)
-3 spots TV Le sida n'est pas mort. Il suffit d'une fois pour être contaminé par le virus du sida : Couple hétéro restaurant[79], Couple homo restaurant[80] et Couple antillais boîte de nuit[81]. Réalisateur : Raymond Depardon
+3 spots TV Le sida n'est pas mort. Il suffit d'une fois pour être contaminé par le virus du sida : Couple hétéro restaurant, Couple homo restaurant et Couple antillais boîte de nuit. Réalisateur : Raymond Depardon
 Journée mondiale de lutte contre le sida (2001)
-10 spots TV Le sida n'est pas mort : 1er décembre (versions 15 min[82] ou 55 min[83]), 2 décembre (versions 15 min[84] ou 55 min[85]), 3 décembre (versions 15 min[86] ou 55 min[87]), 4 décembre (versions 15 min[88] ou 55 min[89]), 5 décembre (version 15 min[90]), 6 décembre (versions 15 min[91] ou 55 min[92]), 7 décembre (versions 15 min[93] ou 55 min[94]), 8 décembre (versions 15 min[95] ou 55 min[96]), 9 décembre (versions 15 min[97] ou 55 min[98]), 10 décembre (versions 15 min[99] ou 55 min[100])
+10 spots TV Le sida n'est pas mort : 1er décembre (versions 15 min ou 55 min), 2 décembre (versions 15 min ou 55 min), 3 décembre (versions 15 min ou 55 min), 4 décembre (versions 15 min ou 55 min), 5 décembre (version 15 min), 6 décembre (versions 15 min ou 55 min), 7 décembre (versions 15 min ou 55 min), 8 décembre (versions 15 min ou 55 min), 9 décembre (versions 15 min ou 55 min), 10 décembre (versions 15 min ou 55 min)
 Les Aventures de Moussa le Taximan (2001)
 7 courts métrages (4 min 25 s) : Le dragueur fataliste, Je fais mon test, Le guérisseur supérieur, La jeune fille responsable, L'éducation sexuelle, Marc mon frère et Les femmes enceintes. Réalisateur : Henri Duparc
 10 courts métrages contre le sida pour les Départements d'Outre mer (2002)
 Prisca, 5 courts métrages à destination de la Martinique et de la Guadeloupe : ZZ love, Qu'en-dira-t-on ?, Samantha, Collectif et Intimité
-Alex et Bladas, 5 courts métrages à destination de la Guyane : Roun lanmen lavé rot (Une main lave l’autre), Ti kannot gen bon do (Le petit canoë a bon dos), Soda sou konèt so kapitèn (Le soldat, même ivre, reconnaît son capitaine), Touloulou (Dernier cri) et Seeka yu libi (Prends ta vie en main)
-Tabac
-Sans tabac, prenons la vie à pleins poumons (1976)
+Alex et Bladas, 5 courts métrages à destination de la Guyane : Roun lanmen lavé rot (Une main lave l’autre), Ti kannot gen bon do (Le petit canoë a bon dos), Soda sou konèt so kapitèn (Le soldat, même ivre, reconnaît son capitaine), Touloulou (Dernier cri) et Seeka yu libi (Prends ta vie en main)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tabac</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sans tabac, prenons la vie à pleins poumons (1976)
 Huit spots TV : Voiture, Salle d'attente, Pourquoi ils ne fument pas, Enfant, Animation, Couple, Mère et Deux hommes
 Ne fumez pas, n’enfumez plus (Ca ne vous dérange pas si je ne fume pas ?) (1977)
 Une cigarette écrasée, c’est un peu de liberté gagnée (1978)
-Deux spots TV Jeunes[101] et Sport[102]
+Deux spots TV Jeunes et Sport
 Une cigarette en moins, un peu de vie en plus (1979)
-Trois spots TV Pourquoi choisir l'engrenage du tabac ? : Mégots[103], Jeune homme[104] et Clowns[105]
+Trois spots TV Pourquoi choisir l'engrenage du tabac ? : Mégots, Jeune homme et Clowns
 Faites-vous plaisir, arrêtez de fumer. Deux millions de français l'ont déjà fait. (Votre santé dépend aussi de vous - 1980)
-Deux spots TV Respiration[106] et Balade en auto[107]
+Deux spots TV Respiration et Balade en auto
 Commencer l’année du bon pied
 Pour votre santé, soyez plus fort que le tabac (1983).
-Cinq spots TV Micro-trottoir[108], Jeune femme asiatique[109], Homme 1[110], Homme 2[111], Homme âgé[112]. Réalisateur : Jacques Rouland
+Cinq spots TV Micro-trottoir, Jeune femme asiatique, Homme 1, Homme 2, Homme âgé. Réalisateur : Jacques Rouland
 1984. Ouf ! on respire (1984)
 Le tabac, c’est plus ça (1988)
-Spot TV[113]. Musique : Laurent Voulzy
+Spot TV. Musique : Laurent Voulzy
 Moi, je tabastoppe (1989)
 Fumer c'est pas ma nature (1991)
-Spot TV Cow-boy[114]
+Spot TV Cow-boy
 Affiche Bienvenue dans un monde sans tabac
 L'énergie, c'est pas fait pour partir en fumée (1993-1996)
-Spot TV Couple dans un jardin[115] (1993). Réalisateur : Patrick Bouchitey
-Deux spots TV (1996) : Personnes âgées[116] et Gardien de  but[117]. Réalisateur : Vincent de Brus
+Spot TV Couple dans un jardin (1993). Réalisateur : Patrick Bouchitey
+Deux spots TV (1996) : Personnes âgées et Gardien de  but. Réalisateur : Vincent de Brus
 La vie sans tabac, vous commencez quand ? (1997-1999)
-Quatre spots TV (1997) : Chauffeur de taxi[118], Jeunes[119] (avec Lorànt Deutsch et Jocelyn Quivrin), Mère de famille blonde[120] et Mère de famille brune[121]. Réalisateur : Marion Vernoux
-Trois spots TV Tabac info service (1999) : Homme au restaurant[122],  Homme nerveux[123] et Femme cocktail[124]. Réalisateur : Thierry Dupety
+Quatre spots TV (1997) : Chauffeur de taxi, Jeunes (avec Lorànt Deutsch et Jocelyn Quivrin), Mère de famille blonde et Mère de famille brune. Réalisateur : Marion Vernoux
+Trois spots TV Tabac info service (1999) : Homme au restaurant,  Homme nerveux et Femme cocktail. Réalisateur : Thierry Dupety
 Chaque jour passé sans fumer est une victoire sur le tabac (Journées mondiales contre le tabac 1999 et 2000)
-Trois spots TV Aujourd'hui, c'est peut-être le bon jour pour arrêter de fumer :  Basket[125], Karaoké[126] et Magasin[127]. Réalisateur : Bruno Mariage
+Trois spots TV Aujourd'hui, c'est peut-être le bon jour pour arrêter de fumer :  Basket, Karaoké et Magasin. Réalisateur : Bruno Mariage
 Quatre spots radio : Diminution des risques après l'arrêt du tabac, Construction de la motivation, Tentatives d'arrêt et Plaisirs d'être non-fumeur
 Guide pratique J'arrête de fumer
 Zone non-fumeuse (2000). En partenariat avec M6
@@ -709,63 +966,168 @@
 Flyer On vous manipule
 Le tabagisme passif : une réalité mal connue des français (Journée mondiale contre le tabac 2001)
 Affiche Votre cigarette, ce sont aussi les autres qui la fument
-Brochure Le tabagisme passif
-Vaccination
-Rougeole, oreillons, rubéole. Pas d'hésitation, vaccination ! (1991)
-Spot TV[128]
+Brochure Le tabagisme passif</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rougeole, oreillons, rubéole. Pas d'hésitation, vaccination ! (1991)
+Spot TV
 Hépatite B : se vacciner, c'est l'éviter (1995)
-Spot TV[129]
+Spot TV
 Rougeole, Oreillons, Rubéole. Un vaccin : 3 maladies de moins (1996)
-Spot TV[130]. Réalisateur : Christophe Vassort
+Spot TV. Réalisateur : Christophe Vassort
 Rougeole, Oreillons, Rubéole. Pour en finir avec ces maladies, aujourd'hui le vaccin est gratuit (1999)
-Trois spots TV : Rougeole[131], Oreillons[132] et Rubéole[133]. Réalisateur : Howard Guard
+Trois spots TV : Rougeole, Oreillons et Rubéole. Réalisateur : Howard Guard
 Rougeole Oreillons Rubéole, c'est bénin sauf quand c'est grave (2000)
-Affiche et brochure
-Autres thèmes
-Comme lui, lavez-vous les dents (1964)
+Affiche et brochure</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres thèmes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Comme lui, lavez-vous les dents (1964)
 Longues veillées... journées gâchées (1975)
 Pierrot la forme (Votre santé aussi dépend de vous) (1980)
-Quatre spots TV : Brossage des dents[134], Ballade en auto[135], Repas extérieur[136] et  Repas intérieur[137]
+Quatre spots TV : Brossage des dents, Ballade en auto, Repas extérieur et  Repas intérieur
 Vos dents sont vivantes (1982)
-Six spots TV : Faites les examiner régulièrement (La porte[138]), Pensez à les brosser (Le verre d'eau[139]), Pensez à les brosser (Les noix[140]), Pensez à les brosser (Le tuba[141]), Pensez à les brosser (Eclat de rire[142]) et Pensez à les brosser (La carotte[143])
+Six spots TV : Faites les examiner régulièrement (La porte), Pensez à les brosser (Le verre d'eau), Pensez à les brosser (Les noix), Pensez à les brosser (Le tuba), Pensez à les brosser (Eclat de rire) et Pensez à les brosser (La carotte)
 Faites un petit effort, trouvez votre sport! (1984)
-Spot TV Bougez-vous la santé[144]
+Spot TV Bougez-vous la santé
 Prévention des accidents cardiaques : Bouge ton cœur (1986)
-Deux spots TV :  Tabagisme[145] (avec Claire Nadeau) et Excès de nourriture[146]
+Deux spots TV :  Tabagisme (avec Claire Nadeau) et Excès de nourriture
 La douleur n'est pas une fatalité, refusons-la (1998)
-Spot TV[147]. Réalisateur : Yamina Benguigui</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Spot TV. Réalisateur : Yamina Benguigui</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Édition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le CFES a édité la revue La Santé de l'homme dès 1942. Depuis 2002, l'édition en est assurée par l'INPES.
-Baromètre Santé
-Baromètre Santé 1994/1995 Médecins généralistes (1996)
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CFES a édité la revue La Santé de l'homme dès 1942. Depuis 2002, l'édition en est assurée par l'INPES.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Édition</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Baromètre Santé</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Baromètre Santé 1994/1995 Médecins généralistes (1996)
 Baromètre Santé 1994 jeunes (1997)
 Baromètre Santé Adultes 1995/1996 (1997)
 Baromètre santé Nutrition 1996 Adultes (1997)
@@ -776,9 +1138,43 @@
 Baromètre Santé : premiers résultats 2000 (2000)
 Health Barometers in France 1995/1999 (2001)
 Baromètre Santé 2000. Volume 1 : Méthode (2001)
-Baromètre Santé 2000. Volume 2 : Résultats (2001)
-Séminaires
-La santé des adolescents : quels liens entre recherche et prévention ? (1994)
+Baromètre Santé 2000. Volume 2 : Résultats (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Édition</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Séminaires</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La santé des adolescents : quels liens entre recherche et prévention ? (1994)
 Santé et publics démunis en Europe (1995)
 Prévention des traumatismes et des accidents (1996)
 Médecins généralistes : acteurs de santé publique ? (1996)
@@ -787,9 +1183,43 @@
 Du bon usage de la communication en éducation pour la santé (1998)
 L'éducation pour la santé des patients : un enjeu pour le système de santé (2001)
 Education pour la santé et éthique (2001)
-L'éducation en santé : enjeux, obstacles, moyens (2001)
-Autres livres
-Atout âge : intergénération et promotion de la santé (1993)
+L'éducation en santé : enjeux, obstacles, moyens (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Édition</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Atout âge : intergénération et promotion de la santé (1993)
 RMI et santé (1993)
 1,2,3 santé : éducation pour la santé en milieu scolaire (1996)
 Ville et santé (1996)
@@ -805,31 +1235,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Comité_français_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comit%C3%A9_fran%C3%A7ais_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Mallettes pédagogiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Esti reporter (tabac) (1993)
 Badaboum et Garatoi (1993)
